--- a/VocabolariControllati/classifications-for-people/sex/sex.xlsx
+++ b/VocabolariControllati/classifications-for-people/sex/sex.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgialodi/Dropbox/OntoPiA/GitOntoPiA/daf-ontologie-vocabolari-controllati/VocabolariControllati/classifications-for-people/sex/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7E6936-FC47-2B40-B47A-3916A51DEC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,16 +48,16 @@
     <t>codice_1 _Llivello</t>
   </si>
   <si>
-    <t>label_ITA_1_livello</t>
-  </si>
-  <si>
-    <t>label_ENG_1_livello</t>
+    <t>label_1_livello_it</t>
+  </si>
+  <si>
+    <t>label_1_livello_en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -120,16 +126,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -454,21 +468,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -479,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -490,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
